--- a/po_analysis_by_asin/B0BYBHW4SH_po_data.xlsx
+++ b/po_analysis_by_asin/B0BYBHW4SH_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,241 +452,473 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2424</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>4224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>960</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1304</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>424</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>912</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>512</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>464</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>336</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45411</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>576</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45446</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2080</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45453</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45460</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1040</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45467</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>960</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45495</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>144</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45502</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>800</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>800</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45530</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>224</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>672</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>352</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>896</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1136</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45572</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>3104</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45579</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>368</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45586</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>400</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45593</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B31" t="n">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B60" t="n">
         <v>160</v>
       </c>
     </row>
@@ -701,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,81 +955,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2424</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>5376</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2752</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2224</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>576</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4912</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>144</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1616</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2144</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>5168</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BYBHW4SH_po_data.xlsx
+++ b/po_analysis_by_asin/B0BYBHW4SH_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,374 +551,350 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>704</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>232</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>232</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>624</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>744</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>296</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>296</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>512</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>112</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1840</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>1000</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>216</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1304</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>2424</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>4224</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1128</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>960</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>64</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>1304</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>424</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>912</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>512</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>464</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>336</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>576</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>2080</v>
+        <v>960</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>832</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1040</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>800</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>800</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>224</v>
+        <v>896</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>672</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>352</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>896</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>1136</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B58" t="n">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45592.99999999999</v>
-      </c>
-      <c r="B59" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B60" t="n">
         <v>160</v>
       </c>
     </row>
@@ -990,7 +966,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">

--- a/po_analysis_by_asin/B0BYBHW4SH_po_data.xlsx
+++ b/po_analysis_by_asin/B0BYBHW4SH_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -925,7 +926,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1087,6 +1088,943 @@
       </c>
       <c r="B21" t="n">
         <v>5168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>269</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-714.2234298111636</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1260.204545759068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>279</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-672.2827752808158</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1270.86607654051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>288</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-683.5878980682875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1219.703128046521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>297</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-616.8774102187695</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1242.674475181399</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>306</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-677.7600592432736</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1196.98558147814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>316</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-583.0451199805439</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1266.71500959079</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>325</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-693.0575956890119</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1220.765066900166</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-618.6886710539609</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1363.033100096997</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>343</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-570.1242031776339</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1303.536053785661</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>362</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-613.7829214516798</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1349.342796678671</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>380</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-575.7534713826835</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1397.136981479546</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>389</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-584.6774220690438</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1375.041212081185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>399</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-534.8802176145153</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1373.34252862427</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>435</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-489.1484321558914</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1422.593228440426</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>445</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-559.5290786739164</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1337.096440960379</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>463</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-483.9122693424816</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1408.382683154335</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>472</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-535.076424382009</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1405.694828394207</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>482</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-410.3134886090937</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1403.028096229173</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>491</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-502.1510812138894</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1469.826674934353</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>500</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-485.6359335828119</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1472.92340596937</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>509</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-463.9489851508926</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1433.730653123324</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>518</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-392.551052713534</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1452.791149230966</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>528</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-426.7573216657827</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1409.128298497946</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>537</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-465.055227568831</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1516.393271457269</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>574</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-342.8508270749249</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1572.843577569103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>602</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-409.2777841054047</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1535.645558920276</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>675</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-272.5053783645934</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1574.932782835165</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>685</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-219.4326647286063</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1746.190556170372</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>694</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-284.7143924501513</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1575.088345354707</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>712</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-195.8934722475439</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1681.314319347736</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>721</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-283.1921889546653</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1669.896041042608</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>731</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-233.4884949080786</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1670.401460183565</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>740</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-196.0535318837299</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1736.652700422401</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>749</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-244.6577871440195</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1702.503017309441</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>758</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-158.5497232502752</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1718.504771260644</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>768</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-179.2254509729821</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1693.213738648561</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>777</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-96.63459680471065</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1734.809705533976</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>786</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-109.7065249618074</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1761.398996001593</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>795</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-137.0305099292912</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1817.503728609302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>841</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-143.7480139294747</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1770.909628661641</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>851</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-103.0535370336918</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1784.499694312679</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>860</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-119.9411447024792</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1834.63005946612</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>869</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-127.3391982736691</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1803.504757166526</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>906</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-48.64819813050064</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1883.926326595228</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>915</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-26.68714095007923</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1936.38813915923</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>943</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.153894899588735</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1893.285177741475</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>952</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29.08141101071056</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1891.782739841411</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>961</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-46.69312384199959</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1924.43668139979</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>971</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.767521734140535</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1993.514910296143</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>980</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10.01213263102387</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1906.115943747939</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>989</v>
+      </c>
+      <c r="C52" t="n">
+        <v>49.73338632178545</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1956.131666099288</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>998</v>
+      </c>
+      <c r="C53" t="n">
+        <v>81.84549276563546</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2025.054986862888</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C54" t="n">
+        <v>62.47751217112976</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1933.96472705401</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C55" t="n">
+        <v>33.13813203361629</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2030.688890757654</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C56" t="n">
+        <v>92.02384962717767</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1980.94388960509</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C57" t="n">
+        <v>81.96577628577091</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1951.345015456511</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C58" t="n">
+        <v>93.49485413195815</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2000.165506312068</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C59" t="n">
+        <v>91.80413084008336</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2083.468819175937</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C60" t="n">
+        <v>142.9290735039483</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1996.459465042783</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C61" t="n">
+        <v>157.7761406137423</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1984.460557607</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1081</v>
+      </c>
+      <c r="C62" t="n">
+        <v>111.7053804383757</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2058.827358193181</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1091</v>
+      </c>
+      <c r="C63" t="n">
+        <v>174.8518941149963</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2004.387515156129</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C64" t="n">
+        <v>198.1142255083013</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2078.855291821087</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1109</v>
+      </c>
+      <c r="C65" t="n">
+        <v>83.84836187328416</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2071.946913459396</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BYBHW4SH_po_data.xlsx
+++ b/po_analysis_by_asin/B0BYBHW4SH_po_data.xlsx
@@ -1101,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1120,16 +1120,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1138,12 +1128,6 @@
       <c r="B2" t="n">
         <v>269</v>
       </c>
-      <c r="C2" t="n">
-        <v>-714.2234298111636</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1260.204545759068</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1152,12 +1136,6 @@
       <c r="B3" t="n">
         <v>279</v>
       </c>
-      <c r="C3" t="n">
-        <v>-672.2827752808158</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1270.86607654051</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1166,12 +1144,6 @@
       <c r="B4" t="n">
         <v>288</v>
       </c>
-      <c r="C4" t="n">
-        <v>-683.5878980682875</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1219.703128046521</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1180,12 +1152,6 @@
       <c r="B5" t="n">
         <v>297</v>
       </c>
-      <c r="C5" t="n">
-        <v>-616.8774102187695</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1242.674475181399</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1194,12 +1160,6 @@
       <c r="B6" t="n">
         <v>306</v>
       </c>
-      <c r="C6" t="n">
-        <v>-677.7600592432736</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1196.98558147814</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1208,12 +1168,6 @@
       <c r="B7" t="n">
         <v>316</v>
       </c>
-      <c r="C7" t="n">
-        <v>-583.0451199805439</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1266.71500959079</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1222,12 +1176,6 @@
       <c r="B8" t="n">
         <v>325</v>
       </c>
-      <c r="C8" t="n">
-        <v>-693.0575956890119</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1220.765066900166</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1236,12 +1184,6 @@
       <c r="B9" t="n">
         <v>334</v>
       </c>
-      <c r="C9" t="n">
-        <v>-618.6886710539609</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1363.033100096997</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1250,12 +1192,6 @@
       <c r="B10" t="n">
         <v>343</v>
       </c>
-      <c r="C10" t="n">
-        <v>-570.1242031776339</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1303.536053785661</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1264,12 +1200,6 @@
       <c r="B11" t="n">
         <v>362</v>
       </c>
-      <c r="C11" t="n">
-        <v>-613.7829214516798</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1349.342796678671</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1278,12 +1208,6 @@
       <c r="B12" t="n">
         <v>380</v>
       </c>
-      <c r="C12" t="n">
-        <v>-575.7534713826835</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1397.136981479546</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1292,12 +1216,6 @@
       <c r="B13" t="n">
         <v>389</v>
       </c>
-      <c r="C13" t="n">
-        <v>-584.6774220690438</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1375.041212081185</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1306,12 +1224,6 @@
       <c r="B14" t="n">
         <v>399</v>
       </c>
-      <c r="C14" t="n">
-        <v>-534.8802176145153</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1373.34252862427</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1320,12 +1232,6 @@
       <c r="B15" t="n">
         <v>435</v>
       </c>
-      <c r="C15" t="n">
-        <v>-489.1484321558914</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1422.593228440426</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1334,12 +1240,6 @@
       <c r="B16" t="n">
         <v>445</v>
       </c>
-      <c r="C16" t="n">
-        <v>-559.5290786739164</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1337.096440960379</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1348,12 +1248,6 @@
       <c r="B17" t="n">
         <v>463</v>
       </c>
-      <c r="C17" t="n">
-        <v>-483.9122693424816</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1408.382683154335</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1362,12 +1256,6 @@
       <c r="B18" t="n">
         <v>472</v>
       </c>
-      <c r="C18" t="n">
-        <v>-535.076424382009</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1405.694828394207</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1376,12 +1264,6 @@
       <c r="B19" t="n">
         <v>482</v>
       </c>
-      <c r="C19" t="n">
-        <v>-410.3134886090937</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1403.028096229173</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1390,12 +1272,6 @@
       <c r="B20" t="n">
         <v>491</v>
       </c>
-      <c r="C20" t="n">
-        <v>-502.1510812138894</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1469.826674934353</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1404,12 +1280,6 @@
       <c r="B21" t="n">
         <v>500</v>
       </c>
-      <c r="C21" t="n">
-        <v>-485.6359335828119</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1472.92340596937</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1418,12 +1288,6 @@
       <c r="B22" t="n">
         <v>509</v>
       </c>
-      <c r="C22" t="n">
-        <v>-463.9489851508926</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1433.730653123324</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1432,12 +1296,6 @@
       <c r="B23" t="n">
         <v>518</v>
       </c>
-      <c r="C23" t="n">
-        <v>-392.551052713534</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1452.791149230966</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1446,12 +1304,6 @@
       <c r="B24" t="n">
         <v>528</v>
       </c>
-      <c r="C24" t="n">
-        <v>-426.7573216657827</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1409.128298497946</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1460,12 +1312,6 @@
       <c r="B25" t="n">
         <v>537</v>
       </c>
-      <c r="C25" t="n">
-        <v>-465.055227568831</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1516.393271457269</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1474,12 +1320,6 @@
       <c r="B26" t="n">
         <v>574</v>
       </c>
-      <c r="C26" t="n">
-        <v>-342.8508270749249</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1572.843577569103</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1488,12 +1328,6 @@
       <c r="B27" t="n">
         <v>602</v>
       </c>
-      <c r="C27" t="n">
-        <v>-409.2777841054047</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1535.645558920276</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1502,12 +1336,6 @@
       <c r="B28" t="n">
         <v>675</v>
       </c>
-      <c r="C28" t="n">
-        <v>-272.5053783645934</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1574.932782835165</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1516,12 +1344,6 @@
       <c r="B29" t="n">
         <v>685</v>
       </c>
-      <c r="C29" t="n">
-        <v>-219.4326647286063</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1746.190556170372</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1530,12 +1352,6 @@
       <c r="B30" t="n">
         <v>694</v>
       </c>
-      <c r="C30" t="n">
-        <v>-284.7143924501513</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1575.088345354707</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1544,12 +1360,6 @@
       <c r="B31" t="n">
         <v>712</v>
       </c>
-      <c r="C31" t="n">
-        <v>-195.8934722475439</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1681.314319347736</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1558,12 +1368,6 @@
       <c r="B32" t="n">
         <v>721</v>
       </c>
-      <c r="C32" t="n">
-        <v>-283.1921889546653</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1669.896041042608</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1572,12 +1376,6 @@
       <c r="B33" t="n">
         <v>731</v>
       </c>
-      <c r="C33" t="n">
-        <v>-233.4884949080786</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1670.401460183565</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1586,12 +1384,6 @@
       <c r="B34" t="n">
         <v>740</v>
       </c>
-      <c r="C34" t="n">
-        <v>-196.0535318837299</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1736.652700422401</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1600,12 +1392,6 @@
       <c r="B35" t="n">
         <v>749</v>
       </c>
-      <c r="C35" t="n">
-        <v>-244.6577871440195</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1702.503017309441</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1614,12 +1400,6 @@
       <c r="B36" t="n">
         <v>758</v>
       </c>
-      <c r="C36" t="n">
-        <v>-158.5497232502752</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1718.504771260644</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1628,12 +1408,6 @@
       <c r="B37" t="n">
         <v>768</v>
       </c>
-      <c r="C37" t="n">
-        <v>-179.2254509729821</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1693.213738648561</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1642,12 +1416,6 @@
       <c r="B38" t="n">
         <v>777</v>
       </c>
-      <c r="C38" t="n">
-        <v>-96.63459680471065</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1734.809705533976</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1656,12 +1424,6 @@
       <c r="B39" t="n">
         <v>786</v>
       </c>
-      <c r="C39" t="n">
-        <v>-109.7065249618074</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1761.398996001593</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1670,12 +1432,6 @@
       <c r="B40" t="n">
         <v>795</v>
       </c>
-      <c r="C40" t="n">
-        <v>-137.0305099292912</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1817.503728609302</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1684,12 +1440,6 @@
       <c r="B41" t="n">
         <v>841</v>
       </c>
-      <c r="C41" t="n">
-        <v>-143.7480139294747</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1770.909628661641</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1698,12 +1448,6 @@
       <c r="B42" t="n">
         <v>851</v>
       </c>
-      <c r="C42" t="n">
-        <v>-103.0535370336918</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1784.499694312679</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1712,12 +1456,6 @@
       <c r="B43" t="n">
         <v>860</v>
       </c>
-      <c r="C43" t="n">
-        <v>-119.9411447024792</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1834.63005946612</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1726,12 +1464,6 @@
       <c r="B44" t="n">
         <v>869</v>
       </c>
-      <c r="C44" t="n">
-        <v>-127.3391982736691</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1803.504757166526</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1740,12 +1472,6 @@
       <c r="B45" t="n">
         <v>906</v>
       </c>
-      <c r="C45" t="n">
-        <v>-48.64819813050064</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1883.926326595228</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1754,12 +1480,6 @@
       <c r="B46" t="n">
         <v>915</v>
       </c>
-      <c r="C46" t="n">
-        <v>-26.68714095007923</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1936.38813915923</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1768,12 +1488,6 @@
       <c r="B47" t="n">
         <v>943</v>
       </c>
-      <c r="C47" t="n">
-        <v>6.153894899588735</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1893.285177741475</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1782,12 +1496,6 @@
       <c r="B48" t="n">
         <v>952</v>
       </c>
-      <c r="C48" t="n">
-        <v>29.08141101071056</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1891.782739841411</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1796,12 +1504,6 @@
       <c r="B49" t="n">
         <v>961</v>
       </c>
-      <c r="C49" t="n">
-        <v>-46.69312384199959</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1924.43668139979</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1810,12 +1512,6 @@
       <c r="B50" t="n">
         <v>971</v>
       </c>
-      <c r="C50" t="n">
-        <v>2.767521734140535</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1993.514910296143</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1824,12 +1520,6 @@
       <c r="B51" t="n">
         <v>980</v>
       </c>
-      <c r="C51" t="n">
-        <v>10.01213263102387</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1906.115943747939</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1838,12 +1528,6 @@
       <c r="B52" t="n">
         <v>989</v>
       </c>
-      <c r="C52" t="n">
-        <v>49.73338632178545</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1956.131666099288</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1852,12 +1536,6 @@
       <c r="B53" t="n">
         <v>998</v>
       </c>
-      <c r="C53" t="n">
-        <v>81.84549276563546</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2025.054986862888</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1866,12 +1544,6 @@
       <c r="B54" t="n">
         <v>1007</v>
       </c>
-      <c r="C54" t="n">
-        <v>62.47751217112976</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1933.96472705401</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1880,12 +1552,6 @@
       <c r="B55" t="n">
         <v>1017</v>
       </c>
-      <c r="C55" t="n">
-        <v>33.13813203361629</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2030.688890757654</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1894,12 +1560,6 @@
       <c r="B56" t="n">
         <v>1026</v>
       </c>
-      <c r="C56" t="n">
-        <v>92.02384962717767</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1980.94388960509</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1908,12 +1568,6 @@
       <c r="B57" t="n">
         <v>1035</v>
       </c>
-      <c r="C57" t="n">
-        <v>81.96577628577091</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1951.345015456511</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1922,12 +1576,6 @@
       <c r="B58" t="n">
         <v>1044</v>
       </c>
-      <c r="C58" t="n">
-        <v>93.49485413195815</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2000.165506312068</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1936,12 +1584,6 @@
       <c r="B59" t="n">
         <v>1054</v>
       </c>
-      <c r="C59" t="n">
-        <v>91.80413084008336</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2083.468819175937</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1950,12 +1592,6 @@
       <c r="B60" t="n">
         <v>1063</v>
       </c>
-      <c r="C60" t="n">
-        <v>142.9290735039483</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1996.459465042783</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1964,12 +1600,6 @@
       <c r="B61" t="n">
         <v>1072</v>
       </c>
-      <c r="C61" t="n">
-        <v>157.7761406137423</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1984.460557607</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1978,12 +1608,6 @@
       <c r="B62" t="n">
         <v>1081</v>
       </c>
-      <c r="C62" t="n">
-        <v>111.7053804383757</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2058.827358193181</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1992,12 +1616,6 @@
       <c r="B63" t="n">
         <v>1091</v>
       </c>
-      <c r="C63" t="n">
-        <v>174.8518941149963</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2004.387515156129</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2006,12 +1624,6 @@
       <c r="B64" t="n">
         <v>1100</v>
       </c>
-      <c r="C64" t="n">
-        <v>198.1142255083013</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2078.855291821087</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2019,12 +1631,6 @@
       </c>
       <c r="B65" t="n">
         <v>1109</v>
-      </c>
-      <c r="C65" t="n">
-        <v>83.84836187328416</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2071.946913459396</v>
       </c>
     </row>
   </sheetData>
